--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,13 +201,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查代码未发现问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cur_material_balance
+    <t>1.检查物料库存数据，结果正确
+2.检查供应商库存数量，结果正确
+3.检查委外加工对数表数据，结果正确
+cur_material_balance
 cur_consign_price
 cur_consign_processed_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交：
+  1.更新物料库存数量
+  2.更新物料加工商库存数量
+撤销和提交类似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查代码未发现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查物料库存数据，结果正确
+2.检查供应商库存数量，结果正确
+cur_material_balance
+cur_consign_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -733,7 +750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="82.5">
+    <row r="5" spans="1:6" ht="99">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -744,24 +761,34 @@
         <v>41</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="66">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4">

--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,14 +217,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查代码未发现问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.检查物料库存数据，结果正确
 2.检查供应商库存数量，结果正确
 cur_material_balance
 cur_consign_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试过程修改功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修复有查询条件时，导出出错问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修复有查询条件时，导出出错问题
+3.修复按照供应商查询时出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查ConsignWarehousingEntryExtra是否可删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交：
+  1.更新物料库存数量
+  2.更新物料加工商库存数量
+  3.更新委外加工对数加工件数量
+  4.更新耗料明细表数据
+撤销和提交类似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查物料库存数据，结果正确
+2.检查供应商库存数量，结果正确
+3.检查委外加工对数表数据，结果正确
+4.检查耗料明细表数据，结果正确
+cur_material_balance
+cur_consign_price
+cur_consign_processed_price
+consign_price_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交：
+  1.更新加工件库存数量
+  2.更新委外加工对数加工件数量
+撤销和提交类似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查代码未发现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查加工件库存数据，结果正确
+2.检查委外加工对数表数据，结果正确
+cur_material_balance
+cur_consign_processed_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修复有查询条件时，导出出错问题
+3.修复物料分录无法获取单位、规格型号问题
+4.修复保存并提交操作的异常。
+5.未保存单据不能编辑耗料明细，删除单据时，同步删除耗料明细。
+6.修复按照供应商查询时出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修复有查询条件时，导出出错问题
+3.修复验收完成时，提交错误（由于sort保存类型不对造成）
+4.修复按照供应商查询时出错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,24 +726,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -689,8 +764,14 @@
       <c r="F1" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="49.5">
+      <c r="G1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="66">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -709,8 +790,12 @@
       <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="99">
+      <c r="G2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="99">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -729,8 +814,12 @@
       <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="99">
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="99">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -749,8 +838,12 @@
       <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="99">
+      <c r="G4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="99">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -769,8 +862,12 @@
       <c r="F5" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="66">
+      <c r="G5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="66">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -781,40 +878,68 @@
         <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="132">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="82.5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -825,8 +950,10 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -837,8 +964,10 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -849,8 +978,10 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -861,8 +992,10 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -873,8 +1006,10 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -885,8 +1020,10 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -897,8 +1034,10 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -909,8 +1048,10 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -921,8 +1062,10 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -933,8 +1076,10 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -945,8 +1090,10 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -957,8 +1104,10 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -969,8 +1118,10 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -981,8 +1132,10 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -993,8 +1146,10 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1005,8 +1160,10 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1017,8 +1174,10 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1029,8 +1188,10 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1041,8 +1202,10 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1053,8 +1216,10 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1065,8 +1230,10 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1077,6 +1244,8 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="测试问题" sheetId="1" r:id="rId1"/>
+    <sheet name="公共问题" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,25 @@
 2.修复有查询条件时，导出出错问题
 3.修复验收完成时，提交错误（由于sort保存类型不对造成）
 4.修复按照供应商查询时出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>新增的基础数据，在下拉框store中无法及时更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +356,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +393,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -404,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +456,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,7 +760,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1261,13 +1292,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C477">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查代码未发现问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.检查加工件库存数据，结果正确
 2.检查委外加工对数表数据，结果正确
 cur_material_balance
@@ -317,6 +313,58 @@
   </si>
   <si>
     <t>新增的基础数据，在下拉框store中无法及时更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查代码未发现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修复有查询条件时，导出出错问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交：
+  1.更新物料库存数量
+  2.更新物料车间库存数量
+撤销和提交类似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查物料库存数据，结果正确
+2.检查车间库存数量，结果正确
+cur_material_balance
+cur_workshop_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交：
+  1.更新物料库存数量
+  2.更新物料车间库存数量
+  3.更新耗料明细表数据
+撤销和提交类似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查物料库存数据，结果正确
+2.检查车间库存数量，结果正确
+3.检查耗料明细表数据，结果正确
+cur_material_balance
+cur_workshop_price
+workshop_price_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修复有查询条件时，导出出错问题
+3.修复物料分录无法获取单位、规格型号问题
+4.修复保存并提交操作的异常。
+5.未保存单据不能编辑耗料明细，删除单据时，同步删除耗料明细。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查WorkshopWarehousingEntryExtra是否可删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +510,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -942,7 +993,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>49</v>
@@ -959,58 +1010,90 @@
         <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="66">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="66">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="115.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="C11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5">
@@ -1308,13 +1391,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1322,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,41 @@
   </si>
   <si>
     <t>1.检查WorkshopWarehousingEntryExtra是否可删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查代码未发现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交：
+  1.更新物料库存数量
+撤销和提交类似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查物料库存数据，结果正确
+cur_material_balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查加工件库存数据，结果正确
+cur_material_balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交：
+  1.更新加工件库存数量
+撤销和提交类似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修复有查询条件时，导出出错问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1080,7 +1115,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>66</v>
@@ -1095,32 +1130,52 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="49.5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="49.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8">
@@ -1130,10 +1185,16 @@
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>

--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +400,49 @@
   </si>
   <si>
     <t>功能正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交：
+  1.更新物料库存数量
+撤销和提交类似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查物料库存数据，结果正确
+cur_material_balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修复有查询条件时，导出出错问题
+3.去除单价录入功能，隐藏金额、单价、总金额展示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查代码未发现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查物料库存数据，结果正确
+cur_workshop_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交：
+  1.更新车间物料库存数量
+撤销和提交类似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交：
+  1.更新供应商物料库存数量
+撤销和提交类似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查物料库存数据，结果正确
+cur_consign_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1165,7 +1208,7 @@
         <v>70</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>71</v>
@@ -1174,7 +1217,7 @@
         <v>36</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -1380,46 +1423,76 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="66">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="C28" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="66">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="C29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="66">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="C30" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="H30" s="5"/>
     </row>
   </sheetData>

--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查代码未发现问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提交：
   1.更新物料库存数量
 撤销和提交类似。</t>
@@ -443,6 +439,14 @@
   <si>
     <t>1.检查物料库存数据，结果正确
 cur_consign_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查代码未发现问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +893,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1181,19 +1185,19 @@
         <v>13</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -1205,13 +1209,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>36</v>
@@ -1229,10 +1233,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -1304,10 +1308,16 @@
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
@@ -1318,10 +1328,16 @@
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
@@ -1332,10 +1348,16 @@
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
@@ -1346,10 +1368,16 @@
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
@@ -1431,19 +1459,19 @@
         <v>30</v>
       </c>
       <c r="C28" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="F28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="H28" s="5"/>
     </row>
@@ -1455,19 +1483,19 @@
         <v>31</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="F29" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H29" s="5"/>
     </row>
@@ -1479,19 +1507,19 @@
         <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="F30" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H30" s="5"/>
     </row>

--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,6 +447,10 @@
   </si>
   <si>
     <t>检查代码未发现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +897,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F22"/>
+      <selection activeCell="G23" sqref="G22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1358,7 +1362,9 @@
       <c r="F21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
@@ -1388,10 +1394,16 @@
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>

--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,23 @@
   </si>
   <si>
     <t>1.实现物料模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修改成品报表逻辑，取安装包装类型物料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改安装包装报表逻辑，从成品入库单据出数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改入仓业务，计算明细耗料金额代码修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.入仓确认时，增加板数量获取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,6 +615,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -897,7 +917,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G22:G23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1249,7 +1269,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="33">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1260,7 +1280,9 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
@@ -1274,7 +1296,9 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
@@ -1407,32 +1431,48 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="33">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="49.5">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">

--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,11 +463,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.修改入仓业务，计算明细耗料金额代码修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.入仓确认时，增加板数量获取</t>
+    <t>1.修改入仓业务，计算明细耗料金额代码修正
+2.实现物料模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.入仓确认时，增加板数量获取
+2.实现物料模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有填入必填项时，没有提示，并且入库成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修复提交时异常无法弹出信息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +932,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1269,7 +1284,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="33">
+    <row r="15" spans="1:8" ht="49.5">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1285,7 +1300,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="33">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1296,7 +1311,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="12" t="s">
         <v>89</v>
       </c>
       <c r="H16" s="6"/>
@@ -1312,10 +1327,12 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="33">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1326,8 +1343,12 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">

--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,6 +483,11 @@
   <si>
     <t>1.实现物料模糊查询
 2.修复提交时异常无法弹出信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修复选中主录时，主录表头消失问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1510,7 +1515,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="33">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1521,7 +1526,9 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="66">

--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,10 +477,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没有填入必填项时，没有提示，并且入库成功。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.实现物料模糊查询
 2.修复提交时异常无法弹出信息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,6 +484,10 @@
   <si>
     <t>1.实现物料模糊查询
 2.修复选中主录时，主录表头消失问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.权限控制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +937,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1319,7 +1319,9 @@
       <c r="G16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6">
@@ -1349,10 +1351,10 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="12" t="s">
         <v>91</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1508,10 +1510,16 @@
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
@@ -1522,12 +1530,18 @@
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G27" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H27" s="2"/>
     </row>

--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,17 +468,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.入仓确认时，增加板数量获取
-2.实现物料模糊查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.实现物料模糊查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.实现物料模糊查询
-2.修复提交时异常无法弹出信息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,7 +477,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.权限控制</t>
+    <t>1.入仓确认时，增加板数量获取
+2.实现物料模糊查询
+3.提交和删除权限控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修复提交时异常无法弹出信息
+3.提交和删除权限控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查代码未发现问题</t>
+  </si>
+  <si>
+    <t>product_inwarehouse
+product_inwarehouse_entry
+pro_in_out_date_detail
+prd_in_out_week_detail
+cur_material_balance
+cur_workshop_price
+product_inwarehouse_entry_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交：
+ 1.检查成品进仓单是否生成单据
+ 2.检查综合成品帐页面
+ 3.检查综合欠数表页面
+ 4.成品报表页面
+ 5.检查成品库存
+ 6.检查车间耗料库存
+ 7.检查实际耗料列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交：
+ 1.检查成品出仓单是否生成单据
+ 2.检查综合成品帐页面
+ 3.检查综合欠数表页面
+ 4.成品报表页面
+ 5.检查成品库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_outwarehouse
+product_outwarehouse_entry
+pro_in_out_date_detail
+prd_in_out_week_detail
+cur_material_balance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1277,7 +1324,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>35</v>
@@ -1296,32 +1343,44 @@
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G15" s="12" t="s">
         <v>88</v>
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="33">
+    <row r="16" spans="1:8" ht="132">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6">
@@ -1330,32 +1389,44 @@
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G17" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="33">
+    <row r="18" spans="1:8" ht="99">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G18" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
@@ -1541,7 +1612,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H27" s="2"/>
     </row>

--- a/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
+++ b/trunk/hot-deploy/partner/document/测试/系统测试情况-刘继煌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,10 +240,6 @@
   </si>
   <si>
     <t>存在问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.检查ConsignWarehousingEntryExtra是否可删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -283,15 +279,6 @@
   <si>
     <t>1.实现物料模糊查询
 2.修复有查询条件时，导出出错问题
-3.修复物料分录无法获取单位、规格型号问题
-4.修复保存并提交操作的异常。
-5.未保存单据不能编辑耗料明细，删除单据时，同步删除耗料明细。
-6.修复按照供应商查询时出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.实现物料模糊查询
-2.修复有查询条件时，导出出错问题
 3.修复验收完成时，提交错误（由于sort保存类型不对造成）
 4.修复按照供应商查询时出错</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,18 +340,6 @@
 cur_material_balance
 cur_workshop_price
 workshop_price_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.实现物料模糊查询
-2.修复有查询条件时，导出出错问题
-3.修复物料分录无法获取单位、规格型号问题
-4.修复保存并提交操作的异常。
-5.未保存单据不能编辑耗料明细，删除单据时，同步删除耗料明细。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.检查WorkshopWarehousingEntryExtra是否可删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -535,6 +510,42 @@
 pro_in_out_date_detail
 prd_in_out_week_detail
 cur_material_balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductPriceMgr.java和表cur_product_price、his_product_price是否可以删除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.删除ProductPriceMgr.java类。
+2.删除表cur_product_price、his_product_price
+3.更新MonthlySettlement.java类代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修复有查询条件时，导出出错问题
+3.修复物料分录无法获取单位、规格型号问题
+4.修复保存并提交操作的异常。
+5.未保存单据不能编辑耗料明细，删除单据时，同步删除耗料明细。
+6.修复按照供应商查询时出错
+7.删除ConsignWarehousingEntryExtra及其相关代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现物料模糊查询
+2.修复有查询条件时，导出出错问题
+3.修复物料分录无法获取单位、规格型号问题
+4.修复保存并提交操作的异常。
+5.未保存单据不能编辑耗料明细，删除单据时，同步删除耗料明细。
+6.删除WorkshopWarehousingEntryExtra及其相关代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +696,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -983,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G13" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1146,7 +1160,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="132">
+    <row r="7" spans="1:8" ht="181.5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1154,23 +1168,21 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="82.5">
       <c r="A8" s="4">
@@ -1180,17 +1192,17 @@
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -1202,19 +1214,19 @@
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H9" s="5"/>
     </row>
@@ -1226,23 +1238,23 @@
         <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="115.5">
+    <row r="11" spans="1:8" ht="165">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1250,23 +1262,21 @@
         <v>12</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>68</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="49.5">
       <c r="A12" s="5">
@@ -1276,19 +1286,19 @@
         <v>13</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -1300,13 +1310,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>36</v>
@@ -1324,7 +1334,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>35</v>
@@ -1344,17 +1354,17 @@
         <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1366,19 +1376,19 @@
         <v>18</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -1390,17 +1400,17 @@
         <v>19</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -1412,19 +1422,19 @@
         <v>20</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="F18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -1436,10 +1446,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
@@ -1456,10 +1466,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
@@ -1476,17 +1486,17 @@
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1498,10 +1508,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -1518,7 +1528,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>35</v>
@@ -1538,7 +1548,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>35</v>
@@ -1548,7 +1558,7 @@
         <v>36</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -1560,7 +1570,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>35</v>
@@ -1570,7 +1580,7 @@
         <v>36</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -1582,7 +1592,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>35</v>
@@ -1602,7 +1612,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>35</v>
@@ -1612,7 +1622,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -1624,19 +1634,19 @@
         <v>30</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H28" s="5"/>
     </row>
@@ -1648,19 +1658,19 @@
         <v>31</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H29" s="5"/>
     </row>
@@ -1672,19 +1682,19 @@
         <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="F30" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -1702,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1713,135 +1723,169 @@
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="45" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="49.5">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
